--- a/cleanhouse.xlsx
+++ b/cleanhouse.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT01_06\Documents\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865EECFE-E343-480F-95B9-CF0CC0C11564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15675" windowHeight="11115" xr2:uid="{3DA01C2C-D1E8-4234-9E3A-333199044D62}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18792" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,29 +19,484 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="142">
+  <si>
+    <t>읍면동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움센터명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한립읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애월읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구좌읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조천읍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 한림읍 한림남길 12</t>
+  </si>
+  <si>
+    <t>고내리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>제주시 애월읍 고내로 14</t>
+  </si>
+  <si>
+    <t>하귀1리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>제주시 애월읍 하귀동남3길 16</t>
+  </si>
+  <si>
+    <t>제주시 애월읍 애월해안로 7</t>
+  </si>
+  <si>
+    <t>종달리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>제주시 구좌읍 종달논길 31-10</t>
+  </si>
+  <si>
+    <t>하도리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>제주시 구좌읍 문주란로 68</t>
+  </si>
+  <si>
+    <t>조천리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>제주시 조천읍 조천18길 5-5</t>
+  </si>
+  <si>
+    <t>와산리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>제주시 조천읍 중산간동로 924</t>
+  </si>
+  <si>
+    <t>우도면 재활용도움센터</t>
+  </si>
+  <si>
+    <t>제주시 우도면 조일길 123-5</t>
+  </si>
+  <si>
+    <t>이도2동</t>
+  </si>
+  <si>
+    <t>이도2동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>삼도1동</t>
+  </si>
+  <si>
+    <t>삼도1동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>용담1동</t>
+  </si>
+  <si>
+    <t>용담1동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>용담2동</t>
+  </si>
+  <si>
+    <t>용담2동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>화북동</t>
+  </si>
+  <si>
+    <t>화북동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>삼양동</t>
+  </si>
+  <si>
+    <t>삼양동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>아라동</t>
+  </si>
+  <si>
+    <t>아라동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>오라동</t>
+  </si>
+  <si>
+    <t>오라동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>연동</t>
+  </si>
+  <si>
+    <t>연동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>노형동</t>
+  </si>
+  <si>
+    <t>노형동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>도두동</t>
+  </si>
+  <si>
+    <t>도두동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>한림2리 재활용도움센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애월리 재활용도움센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우도면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시~24시</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6시~24시 </t>
+  </si>
+  <si>
+    <t>4시~1시</t>
+  </si>
+  <si>
+    <t>7시~22시</t>
+  </si>
+  <si>
+    <t>24시간</t>
+  </si>
+  <si>
+    <t>6시~22시</t>
+  </si>
+  <si>
+    <t>8시~21시</t>
+  </si>
+  <si>
+    <t>6시~24시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대정읍</t>
+  </si>
+  <si>
+    <t>남원읍</t>
+  </si>
+  <si>
+    <t>성산읍</t>
+  </si>
+  <si>
+    <t>안덕면</t>
+  </si>
+  <si>
+    <t>표선면</t>
+  </si>
+  <si>
+    <t>중앙동</t>
+  </si>
+  <si>
+    <t>천지동</t>
+  </si>
+  <si>
+    <t>효돈동</t>
+  </si>
+  <si>
+    <t>동홍동</t>
+  </si>
+  <si>
+    <t>서홍동</t>
+  </si>
+  <si>
+    <t>대륜동</t>
+  </si>
+  <si>
+    <t>대천동</t>
+  </si>
+  <si>
+    <t>중문동</t>
+  </si>
+  <si>
+    <t>마라도 재활용도움센터</t>
+  </si>
+  <si>
+    <t>구억리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>남원리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>온평리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>성산리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>화순리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>감산리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>표선리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>성읍新문화마을 재활용도움센터</t>
+  </si>
+  <si>
+    <t>성읍문화마을 재활용도움센터</t>
+  </si>
+  <si>
+    <t>중앙 재활용도움센터</t>
+  </si>
+  <si>
+    <t>천지동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>효돈 재활용주민센터</t>
+  </si>
+  <si>
+    <t>동홍동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>서홍동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>호근동 재활용도움센터</t>
+  </si>
+  <si>
+    <t>새서귀포 재활용도움센터</t>
+  </si>
+  <si>
+    <t>강정마을 재활용도움센터</t>
+  </si>
+  <si>
+    <t>중문동 재활용도움센터</t>
+  </si>
   <si>
     <t>서귀포시 대정읍 마라로 127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8시~24시</t>
+  </si>
+  <si>
+    <t>동일1리 재활용도움센터</t>
   </si>
   <si>
     <t>서귀포시 대정읍 동일하모로 90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하모3리 재활용도움센터</t>
   </si>
   <si>
     <t>서귀포시 대정읍 신영로36번길 69-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도로명주소</t>
+  </si>
+  <si>
+    <t>서귀포시 대정읍 영어도시로 35-3</t>
+  </si>
+  <si>
+    <t>서귀포시 남원읍 남태해안로 116</t>
+  </si>
+  <si>
+    <t>위미3리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>서귀포시 남원읍 태위로 377</t>
+  </si>
+  <si>
+    <t>서귀포시 성산읍 온평포구로62번길 13</t>
+  </si>
+  <si>
+    <t>서귀포시 성산읍 성산등용로 65</t>
+  </si>
+  <si>
+    <t>삼달1리 재활용도움센터</t>
+  </si>
+  <si>
+    <t>서귀포시 성산읍 삼달로 249</t>
+  </si>
+  <si>
+    <t>서귀포시 안덕면 화순로 154-42</t>
+  </si>
+  <si>
+    <t>서귀포시 안덕면 일주서로 1521</t>
+  </si>
+  <si>
+    <t>서귀포시 표선면 표선동서로 203-3</t>
+  </si>
+  <si>
+    <t>서귀포시 표선면 서성일로27번길 16-7</t>
+  </si>
+  <si>
+    <t>서귀포시 표선면 서성일로10번길 9-6</t>
+  </si>
+  <si>
+    <t>8시~22시</t>
+  </si>
+  <si>
+    <t>대천동(신시가지) 재활용도움센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 도남로5길 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 광양9길 65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시중문상로17번길 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 강정통물로 125-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 신서로 39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 신서귀로 87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 호근로26번길 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 홍중로28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 동홍중앙로 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제주시 독짓골8길 34 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 신설동길 40-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시월라봉로34번길37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 서문로 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서귀포시 중앙로62번길 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제주시 서광로25길 16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 서광로5길 26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 용해로 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 선반로10길 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 지석10길 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 화삼로 47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 산천단동길 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 인다14길 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 아연로 165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 은남1길 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 귀아랑길 33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 오일장동길 51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 월랑로2길 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 원노형9길 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 우평로 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 연동14길 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 진군3길 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주 제주시 신비마을1길 6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +509,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -86,9 +551,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -150,7 +630,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -202,7 +682,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -396,41 +876,808 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8E9F4A-3BCF-4511-9D5B-88C4FC9D2C0F}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.75" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="31.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
